--- a/models/result.xlsx
+++ b/models/result.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\githubstore\TreeEnsembleVis\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE5CFF2-5F8D-454A-BC46-5AEC8869C045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F00C48-462A-419D-8CE5-9D2E42F8C285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>rf train</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,6 +64,14 @@
   </si>
   <si>
     <t>adult rf over fitting?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iris</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abalone</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -408,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -507,23 +515,57 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.98214285714285698</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.97368421052631504</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.98214285714285698</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.97368421052631504</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.94283148757856905</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.90550239234449703</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.93325351691110403</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.90311004784688997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B8" s="2">
         <v>0.99061599105724496</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C8" s="2">
         <v>0.84259382044821596</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D8" s="1">
         <v>0.92228040242395704</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E8" s="3">
         <v>0.85572205277814595</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
         <v>9</v>
       </c>
     </row>
